--- a/files/purchase_list.xlsx
+++ b/files/purchase_list.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\开源网课\github_ws\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\吴选康\Documents\GitHub\REAL_DRONE_400\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310BD62C-BE6F-4A75-BF7D-2432C5BDA972}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E30B3D-3B8B-449E-A5DF-A5C90F896EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实验室高配版" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="上课低配版" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="开源课程版" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="177">
   <si>
     <t>类目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,32 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存条和固态类似型号都能用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上板+下板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.797e2e8dUtfEC6&amp;id=646866813960&amp;_u=332egecqb666</t>
-  </si>
-  <si>
-    <t>5V稳压模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V工业级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.3f8f12601zxOa6&amp;id=652264033077&amp;ns=1&amp;abbucket=3#detail</t>
-  </si>
-  <si>
     <t>DC供电线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,9 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.773d2e8despLGo&amp;id=613472402389&amp;_u=g2epqo5e38f7</t>
-  </si>
-  <si>
     <t>飞控连接线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,18 +364,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">20,18,14AWG </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>螺丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M3*6mm 扁头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.tmall.com/item.htm?id=624811454452&amp;spm=a1z09.2.0.0.59d32e8daUU1tM&amp;_u=i32egecq19dc&amp;skuId=4601948603338</t>
   </si>
   <si>
@@ -418,26 +381,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.797e2e8dUtfEC6&amp;id=590892957814&amp;_u=332egecq63c6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.4.7b117484yJpUkV&amp;id=520738516076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双目深度相机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>烙铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,85 +489,10 @@
     <t>https://item.taobao.com/item.htm?spm=a1z10.1-c.w4004-8474743471.36.1f164e1fL0mvDM&amp;id=670494420704</t>
   </si>
   <si>
-    <t>预算充足建议这个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tmotor F60 2550KV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.430128b7kVows1&amp;id=650719152882&amp;ns=1&amp;abbucket=13#detail</t>
-  </si>
-  <si>
-    <t>银燕30A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.26.7cd558e1qyMpXO&amp;id=544650621044&amp;ns=1&amp;abbucket=13#detail</t>
-  </si>
-  <si>
-    <t>Holybro pixhawk4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.16.4ec8482f6NDN6X&amp;id=622652205393&amp;ns=1&amp;abbucket=13#detail</t>
-  </si>
-  <si>
-    <t>课程内容仅介绍holybro pix4 mini的安装，其余飞控的安装大同小异，但最推荐的还是mini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUAV V5 NANO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价应该卖699，但淘宝上都是1099的，就不贴链接了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUAV V5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUAV X7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-22188405087.16.6be2688auoxM9A&amp;id=617384615131</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.5-c-s.w4002-22188405087.10.6be2688auoxM9A&amp;id=594262853015</t>
-  </si>
-  <si>
-    <t>根据飞控接口型号购买，例如pix4 mini是micro usb，CUAV的是typec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较厚且长，安装可能遇到问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7通道以上的遥控器和对应的SBUS接收机都能用，但设置方法不额外介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须买这个型号，可以刚好塞进机架里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似5寸桨都行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?id=567943637652&amp;ali_refid=a3_430582_1006:1152475900:N:MsF9mE9KLTC2IibWJh%2BK1A%3D%3D:82cb0cae98e77d6ab8f389660ffac1cf&amp;ali_trackid=1_82cb0cae98e77d6ab8f389660ffac1cf&amp;spm=a230r.1.14.6#detail</t>
   </si>
   <si>
@@ -632,18 +504,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M3*8/10/15/20的各买4根以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.32.301427f5GJzKc2&amp;id=603331087035&amp;ns=1&amp;abbucket=13#detail</t>
   </si>
   <si>
     <t>硅胶杜邦线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碳板是定制的，把附件里的stp文件发给卖家即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,25 +531,176 @@
     <t>https://detail.tmall.com/item.htm?id=541378489978&amp;spm=a1z09.2.0.0.ea4d2e8dwctqDn&amp;_u=t2epqo5eaa9f</t>
   </si>
   <si>
-    <t>5寸桨保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.55b9764dryKRqu&amp;id=574989413314&amp;ns=1&amp;abbucket=13#detail</t>
-  </si>
-  <si>
-    <t>根据个人情况选购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.6.72b83b20uNbZk7&amp;id=656973651729&amp;ns=1&amp;abbucket=19#detail</t>
-  </si>
-  <si>
-    <t>短路保护器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?id=600829968368&amp;ali_refid=a3_430582_1006:1150374273:N:AKUHmrJUzrt3v5Ro05cahaWipOgHIbxh:b8192277632fc8796a134ac616741b67&amp;ali_trackid=1_b8192277632fc8796a134ac616741b67&amp;spm=a230r.1.14.1#detail</t>
+  </si>
+  <si>
+    <t>动力套装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LJI-X400 Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=d3ovgp2s356d&amp;id=661322510447&amp;spm=a1z09.2.0.0.6fd22e8da1sMqV&amp;sku_properties=31309:16741168228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">无刷电机 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-Motor F100 KV1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞控+电调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H7 MINI + F4 4IN1 MINI 50A ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=d3ovgp2s075e&amp;id=695089334583&amp;spm=a1z09.2.0.0.6fd22e8da1sMqV&amp;skuId=4934678877288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=d3ovgp2s37a9&amp;id=666218265469&amp;spm=a1z09.2.0.0.6fd22e8da1sMqV&amp;sku_properties=31309:18046510136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D打印零件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力套成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HQ 7040-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=t3ovgp2s460a&amp;id=671633881954&amp;spm=a1z09.2.0.0.32aa2e8df64WUL&amp;skuId=5010241515719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知模块支架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2abd2e8da0sHzh&amp;id=541658831753&amp;_u=l32egecq5116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=t3ovgp2s8571&amp;id=620560690486&amp;skuId=4648673175694&amp;spm=a1z09.2.0.0.32aa2e8df64WUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知模块配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20,18,16AWG </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.773d2e8despLGo&amp;id=613472402389&amp;_u=g2epqo5e38f7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知模块核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*6mm M3*8mm 杯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M3*25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D打印成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知模块配件成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光雷达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livox Mid-360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://store.dji.com/cn/product/livox-mid-360?vid=130851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">格氏 4000mAh 6S </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?_u=t3ovgp2sa7dc&amp;id=14832015119&amp;spm=a1z09.2.0.0.32aa2e8df64WUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知模块核心成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XT60公、母头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5mm香蕉头
+  公母头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越机脚垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30*15*10mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=t3ovgp2se7b0&amp;id=562158533089&amp;spm=a1z09.2.0.0.32aa2e8df64WUL&amp;skuId=3961675618573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -695,7 +710,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,13 +749,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -756,17 +793,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1055,13 +1120,13 @@
       <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="21.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1144,7 +1209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -1183,7 +1248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>63</v>
       </c>
@@ -1201,7 +1266,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -1222,7 +1287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>66</v>
       </c>
@@ -1258,7 +1323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1279,7 +1344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>12</v>
       </c>
@@ -1300,7 +1365,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>14</v>
       </c>
@@ -1384,7 +1449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -1405,7 +1470,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>16</v>
       </c>
@@ -1426,7 +1491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>52</v>
       </c>
@@ -1447,7 +1512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -1479,7 +1544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>22</v>
       </c>
@@ -1518,13 +1583,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="21.46484375" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1650,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1692,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -1645,7 +1710,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>68</v>
       </c>
@@ -1663,7 +1728,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -1684,7 +1749,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -1726,7 +1791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>16</v>
       </c>
@@ -1768,7 +1833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -1789,7 +1854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>51</v>
       </c>
@@ -1804,7 +1869,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>21</v>
       </c>
@@ -1820,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -1837,943 +1902,951 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2B767-2823-4771-915E-E7BC0035A5D0}">
-  <dimension ref="B3:I59"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="42.3984375" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" customWidth="1"/>
-    <col min="4" max="4" width="14.46484375" customWidth="1"/>
-    <col min="5" max="5" width="30.86328125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.0703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="47.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>288</v>
+      </c>
+      <c r="E3" s="8">
+        <f>D3*C3</f>
+        <v>288</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>229</v>
+      </c>
+      <c r="E4" s="8">
+        <f>D4*C4</f>
+        <v>916</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>916</v>
+      </c>
+      <c r="E5" s="8">
+        <f>D5*C5</f>
+        <v>916</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8">
+        <f>D6*C6</f>
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>93</v>
+      </c>
+      <c r="E7" s="8">
+        <f>C7*D7</f>
+        <v>93</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>545</v>
+      </c>
+      <c r="E8" s="8">
+        <f>C8*D8</f>
+        <v>545</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>488</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ref="E9:E10" si="0">C9*D9</f>
+        <v>488</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>16.989999999999998</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="11">
+        <f>SUM(E3:E10)</f>
+        <v>3277.99</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13" si="1">C13*D13</f>
+        <v>13</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="E14" s="8">
+        <f>C14*D14</f>
+        <v>9.5</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>22.9</v>
+      </c>
+      <c r="E15" s="8">
+        <f>C15*D15</f>
+        <v>22.9</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="8">
+        <f>SUM(E13:E16)</f>
+        <v>48.4</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>2590</v>
+      </c>
+      <c r="E19" s="8">
+        <f>C19*D19</f>
+        <v>2590</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>229</v>
+      </c>
+      <c r="E20" s="8">
+        <f>C20*D20</f>
+        <v>229</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>234</v>
+      </c>
+      <c r="E21" s="8">
+        <f>C21*D21</f>
+        <v>234</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2180</v>
+      </c>
+      <c r="E22" s="8">
+        <f>C22*D22</f>
+        <v>2180</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3999</v>
+      </c>
+      <c r="E23" s="8">
+        <f>C23*D23</f>
+        <v>3999</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="11">
+        <f>SUM(E19:E23)</f>
+        <v>9232</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
+        <v>12</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="8">
+        <v>4</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="8">
+        <v>143</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <f>C41*D41</f>
+        <v>143</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="8">
+        <v>11</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" ref="E42:E48" si="2">C42*D42</f>
+        <v>11</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="8">
+        <v>76.67</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" si="2"/>
+        <v>76.67</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="8">
+        <v>75</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>48</v>
-      </c>
-      <c r="H6">
-        <v>48</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>186</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H26" si="0">F7*G7</f>
-        <v>930</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E8" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>75</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="I8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>69</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>149</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>745</v>
-      </c>
-      <c r="I10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="29.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1269</v>
-      </c>
-      <c r="H11">
-        <f>F11*G11</f>
-        <v>1269</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="E12" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1330</v>
-      </c>
-      <c r="H12">
-        <f>F12*G12</f>
-        <v>1330</v>
-      </c>
-      <c r="I12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1799</v>
-      </c>
-      <c r="H14">
-        <v>1799</v>
-      </c>
-      <c r="I14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1999</v>
-      </c>
-      <c r="H15">
-        <v>1999</v>
-      </c>
-      <c r="I15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16" si="1">F16*G16</f>
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="B17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>9.5</v>
-      </c>
-      <c r="H17">
-        <f>F17*G17</f>
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>22.9</v>
-      </c>
-      <c r="H18">
-        <f>F18*G18</f>
-        <v>45.8</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8">
+        <v>11</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="8">
+        <v>10.99</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
+        <f t="shared" si="2"/>
+        <v>10.99</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>2590</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>2590</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>229</v>
-      </c>
-      <c r="H20">
-        <f>F20*G20</f>
-        <v>229</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>234</v>
-      </c>
-      <c r="H21">
-        <f>F21*G21</f>
-        <v>234</v>
-      </c>
-      <c r="I21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>94</v>
-      </c>
-      <c r="H22">
-        <f>F22*G22</f>
-        <v>94</v>
-      </c>
-      <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="6"/>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>580</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ref="H23:H24" si="2">F23*G23</f>
-        <v>580</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>150</v>
-      </c>
-      <c r="H24">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="I24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
-        <v>125</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>27</v>
-      </c>
-      <c r="H27">
-        <f>F27*G27</f>
-        <v>54</v>
-      </c>
-      <c r="I27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>14</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H32" si="3">F28*G28</f>
-        <v>28</v>
-      </c>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>11.5</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>2180</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
-        <v>2180</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>10</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>30</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="F48" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E49" s="8">
+        <f>C49*D49</f>
+        <v>3.5970000000000004</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <f>C50*D50</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D51" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D47" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47">
-        <v>143</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <f>F47*G47</f>
-        <v>143</v>
-      </c>
-      <c r="I47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <f t="shared" ref="H48:H54" si="4">F48*G48</f>
-        <v>11</v>
-      </c>
-      <c r="I48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50">
-        <v>76.67</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="4"/>
-        <v>76.67</v>
-      </c>
-      <c r="I50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51">
-        <v>75</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="I51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="I52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D53" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53">
-        <v>10.99</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="4"/>
-        <v>10.99</v>
-      </c>
-      <c r="I53" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D54" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54">
-        <v>49</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="I54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D55" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55">
-        <v>10.9</v>
-      </c>
-      <c r="G55">
-        <v>0.33</v>
-      </c>
-      <c r="H55">
-        <f>F55*G55</f>
-        <v>3.5970000000000004</v>
-      </c>
-      <c r="I55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <f>F56*G56</f>
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="G57" s="4"/>
-    </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="H59">
-        <f>SUM(H6:H30)</f>
-        <v>15345.8</v>
-      </c>
+      <c r="E51" s="4">
+        <f>SUM(E41:E50)</f>
+        <v>402.15699999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D54" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B22:B23"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{9536E6FB-8EDC-4FBB-8E84-9B71C9A06893}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{5F540603-0DC8-4ED7-B5D9-7A8EC61B241E}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{963716B3-FBED-43A0-9560-0D91EFD8F49D}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{0651B5A7-81BE-4292-B277-2851B4E218EF}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{8BCDCE35-B7F3-4946-A083-57F9CAAF385D}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{50D3D521-BB87-49A6-A5E5-4E47EFF0A611}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{44D98A49-A408-4194-BAFF-1C0185CBF27C}"/>
+    <hyperlink ref="F23" r:id="rId8" xr:uid="{7B038982-B7EB-4F76-8629-6AA865E1039A}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{02A33C08-D2BF-4B63-9281-1955EF665F72}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{36F07E91-696F-4C5F-BF0E-01C7A8696995}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/files/purchase_list.xlsx
+++ b/files/purchase_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\吴选康\Documents\GitHub\REAL_DRONE_400\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\吴选康\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E30B3D-3B8B-449E-A5DF-A5C90F896EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764EEFDB-E811-4458-B86E-A34A26CDBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实验室高配版" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,12 +22,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="180">
   <si>
     <t>类目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -700,6 +709,18 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?_u=t3ovgp2se7b0&amp;id=562158533089&amp;spm=a1z09.2.0.0.32aa2e8df64WUL&amp;skuId=3961675618573</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC-DC稳压模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTC3780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=p3ovgp2s988d&amp;id=537511849240&amp;spm=a1z09.2.0.0.19c62e8dwykGML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,13 +1141,13 @@
       <selection activeCell="E19" sqref="E19:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1209,7 +1230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -1230,7 +1251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -1248,7 +1269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="4:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>63</v>
       </c>
@@ -1266,7 +1287,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1308,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>33</v>
       </c>
@@ -1305,7 +1326,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>66</v>
       </c>
@@ -1323,7 +1344,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>12</v>
       </c>
@@ -1365,7 +1386,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>16</v>
       </c>
@@ -1491,7 +1512,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
         <v>52</v>
       </c>
@@ -1512,7 +1533,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>51</v>
       </c>
@@ -1544,7 +1565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -1552,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>22</v>
       </c>
@@ -1583,13 +1604,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1671,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1671,7 +1692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -1692,7 +1713,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>68</v>
       </c>
@@ -1728,7 +1749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>32</v>
       </c>
@@ -1749,7 +1770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -1791,7 +1812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>16</v>
       </c>
@@ -1833,7 +1854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -1854,7 +1875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>51</v>
       </c>
@@ -1869,7 +1890,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>21</v>
       </c>
@@ -1885,7 +1906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -1902,24 +1923,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB2B767-2823-4771-915E-E7BC0035A5D0}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.0703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="6" width="47.7109375" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="4"/>
+    <col min="6" max="6" width="47.75" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="14" customFormat="1" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1960,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>135</v>
       </c>
@@ -1949,7 +1970,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>138</v>
       </c>
@@ -1991,7 +2012,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>140</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
@@ -2033,7 +2054,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2075,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2075,7 +2096,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2117,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>174</v>
       </c>
@@ -2117,7 +2138,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2130,7 +2151,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>154</v>
       </c>
@@ -2140,7 +2161,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>82</v>
       </c>
@@ -2161,7 +2182,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>84</v>
       </c>
@@ -2182,7 +2203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>86</v>
       </c>
@@ -2221,177 +2242,179 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>38</v>
+      </c>
+      <c r="E17" s="8">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <f>SUM(E13:E16)</f>
         <v>48.4</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
         <v>2590</v>
-      </c>
-      <c r="E19" s="8">
-        <f>C19*D19</f>
-        <v>2590</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>229</v>
       </c>
       <c r="E20" s="8">
         <f>C20*D20</f>
-        <v>229</v>
+        <v>2590</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
       </c>
       <c r="D21" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E21" s="8">
         <f>C21*D21</f>
+        <v>229</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
         <v>234</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2180</v>
       </c>
       <c r="E22" s="8">
         <f>C22*D22</f>
+        <v>234</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
         <v>2180</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="8">
-        <v>3999</v>
       </c>
       <c r="E23" s="8">
         <f>C23*D23</f>
+        <v>2180</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
         <v>3999</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="E24" s="8">
+        <f>C24*D24</f>
+        <v>3999</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="11">
-        <f>SUM(E19:E23)</f>
-        <v>9232</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
-        <v>144</v>
-      </c>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="11">
+        <f>SUM(E20:E24)</f>
+        <v>9232</v>
+      </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -2404,12 +2427,12 @@
       </c>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
@@ -2422,55 +2445,55 @@
       </c>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7" t="s">
-        <v>161</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>151</v>
       </c>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>158</v>
-      </c>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8">
-        <v>1</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>151</v>
@@ -2479,18 +2502,16 @@
         <v>151</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
+        <v>1</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>151</v>
@@ -2499,16 +2520,18 @@
         <v>151</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8">
-        <v>12</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>151</v>
@@ -2516,15 +2539,17 @@
       <c r="E34" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>171</v>
+      <c r="F34" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>151</v>
@@ -2534,15 +2559,13 @@
       </c>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>160</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>151</v>
@@ -2550,19 +2573,17 @@
       <c r="E36" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C37" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>151</v>
@@ -2571,18 +2592,18 @@
         <v>151</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>90</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>151</v>
@@ -2591,246 +2612,266 @@
         <v>151</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7" t="s">
-        <v>168</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>122</v>
-      </c>
+      <c r="F39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C42" s="8">
         <v>143</v>
       </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8">
-        <f>C41*D41</f>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <f>C42*D42</f>
         <v>143</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C43" s="8">
         <v>11</v>
       </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" ref="E42:E48" si="2">C42*D42</f>
+      <c r="D43" s="8">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" ref="E43:E49" si="2">C43*D43</f>
         <v>11</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8">
         <v>2</v>
       </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="8">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F44" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C45" s="8">
         <v>76.67</v>
       </c>
-      <c r="D44" s="8">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8">
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
         <f t="shared" si="2"/>
         <v>76.67</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C46" s="8">
         <v>75</v>
       </c>
-      <c r="D45" s="8">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8">
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8">
         <v>11</v>
       </c>
-      <c r="D46" s="8">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
+      <c r="D47" s="8">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C48" s="8">
         <v>10.99</v>
       </c>
-      <c r="D47" s="8">
-        <v>1</v>
-      </c>
-      <c r="E47" s="8">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
         <f t="shared" si="2"/>
         <v>10.99</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
         <v>49</v>
       </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
+      <c r="D49" s="8">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C50" s="8">
         <v>10.9</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>0.33</v>
-      </c>
-      <c r="E49" s="8">
-        <f>C49*D49</f>
-        <v>3.5970000000000004</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="8">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1</v>
       </c>
       <c r="E50" s="8">
         <f>C50*D50</f>
+        <v>3.5970000000000004</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="8">
         <v>19.899999999999999</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8">
+        <f>C51*D51</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D51" s="3" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="4">
-        <f>SUM(E41:E50)</f>
+      <c r="E52" s="4">
+        <f>SUM(E42:E51)</f>
         <v>402.15699999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D54" s="5"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2842,11 +2883,12 @@
     <hyperlink ref="F7" r:id="rId5" xr:uid="{8BCDCE35-B7F3-4946-A083-57F9CAAF385D}"/>
     <hyperlink ref="F8" r:id="rId6" xr:uid="{50D3D521-BB87-49A6-A5E5-4E47EFF0A611}"/>
     <hyperlink ref="F13" r:id="rId7" xr:uid="{44D98A49-A408-4194-BAFF-1C0185CBF27C}"/>
-    <hyperlink ref="F23" r:id="rId8" xr:uid="{7B038982-B7EB-4F76-8629-6AA865E1039A}"/>
+    <hyperlink ref="F24" r:id="rId8" xr:uid="{7B038982-B7EB-4F76-8629-6AA865E1039A}"/>
     <hyperlink ref="F9" r:id="rId9" xr:uid="{02A33C08-D2BF-4B63-9281-1955EF665F72}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{36F07E91-696F-4C5F-BF0E-01C7A8696995}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{B9FCD4FF-DBCD-45FA-92E8-BEFF7FC3F9AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>